--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="H2">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="I2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="J2">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68388848799608</v>
+        <v>1.737936333333333</v>
       </c>
       <c r="N2">
-        <v>1.68388848799608</v>
+        <v>5.213808999999999</v>
       </c>
       <c r="O2">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="P2">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="Q2">
-        <v>3.512996951831166</v>
+        <v>3.908332633483778</v>
       </c>
       <c r="R2">
-        <v>3.512996951831166</v>
+        <v>35.174993701354</v>
       </c>
       <c r="S2">
-        <v>0.0004630112579171538</v>
+        <v>0.0004965764481175882</v>
       </c>
       <c r="T2">
-        <v>0.0004630112579171538</v>
+        <v>0.0004965764481175882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="H3">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="I3">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="J3">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.51759461631542</v>
+        <v>3.524875</v>
       </c>
       <c r="N3">
-        <v>3.51759461631542</v>
+        <v>10.574625</v>
       </c>
       <c r="O3">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="P3">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="Q3">
-        <v>7.338549585073566</v>
+        <v>7.926863445583334</v>
       </c>
       <c r="R3">
-        <v>7.338549585073566</v>
+        <v>71.34177101025</v>
       </c>
       <c r="S3">
-        <v>0.0009672171998046238</v>
+        <v>0.001007154217324695</v>
       </c>
       <c r="T3">
-        <v>0.0009672171998046238</v>
+        <v>0.001007154217324695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="H4">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="I4">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="J4">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.8114367846446</v>
+        <v>49.07777633333333</v>
       </c>
       <c r="N4">
-        <v>48.8114367846446</v>
+        <v>147.233329</v>
       </c>
       <c r="O4">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="P4">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="Q4">
-        <v>101.8324134058426</v>
+        <v>110.3678374998305</v>
       </c>
       <c r="R4">
-        <v>101.8324134058426</v>
+        <v>993.310537498474</v>
       </c>
       <c r="S4">
-        <v>0.01342146163924279</v>
+        <v>0.01402287723991199</v>
       </c>
       <c r="T4">
-        <v>0.01342146163924279</v>
+        <v>0.01402287723991199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="H5">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="I5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="J5">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.12942177953271</v>
+        <v>69.40412133333334</v>
       </c>
       <c r="N5">
-        <v>69.12942177953271</v>
+        <v>208.212364</v>
       </c>
       <c r="O5">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="P5">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="Q5">
-        <v>144.2206237079012</v>
+        <v>156.0784403333538</v>
       </c>
       <c r="R5">
-        <v>144.2206237079012</v>
+        <v>1404.705963000184</v>
       </c>
       <c r="S5">
-        <v>0.01900820675798897</v>
+        <v>0.01983067583973375</v>
       </c>
       <c r="T5">
-        <v>0.01900820675798897</v>
+        <v>0.01983067583973375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.08624085078925</v>
+        <v>2.248835333333334</v>
       </c>
       <c r="H6">
-        <v>2.08624085078925</v>
+        <v>6.746506</v>
       </c>
       <c r="I6">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="J6">
-        <v>0.03436831320422099</v>
+        <v>0.03590294220158827</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.84901862104106</v>
+        <v>1.909715333333333</v>
       </c>
       <c r="N6">
-        <v>1.84901862104106</v>
+        <v>5.729146</v>
       </c>
       <c r="O6">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="P6">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="Q6">
-        <v>3.857498181085866</v>
+        <v>4.294635318208445</v>
       </c>
       <c r="R6">
-        <v>3.857498181085866</v>
+        <v>38.651717863876</v>
       </c>
       <c r="S6">
-        <v>0.0005084163492674553</v>
+        <v>0.0005456584565002455</v>
       </c>
       <c r="T6">
-        <v>0.0005084163492674553</v>
+        <v>0.0005456584565002455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H7">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="I7">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="J7">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68388848799608</v>
+        <v>1.737936333333333</v>
       </c>
       <c r="N7">
-        <v>1.68388848799608</v>
+        <v>5.213808999999999</v>
       </c>
       <c r="O7">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="P7">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="Q7">
-        <v>74.57482127151361</v>
+        <v>76.97330390020122</v>
       </c>
       <c r="R7">
-        <v>74.57482127151361</v>
+        <v>692.759735101811</v>
       </c>
       <c r="S7">
-        <v>0.009828924499314481</v>
+        <v>0.0097799070435227</v>
       </c>
       <c r="T7">
-        <v>0.009828924499314481</v>
+        <v>0.0097799070435227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H8">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="I8">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="J8">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.51759461631542</v>
+        <v>3.524875</v>
       </c>
       <c r="N8">
-        <v>3.51759461631542</v>
+        <v>10.574625</v>
       </c>
       <c r="O8">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="P8">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="Q8">
-        <v>155.784656577551</v>
+        <v>156.1169240675417</v>
       </c>
       <c r="R8">
-        <v>155.784656577551</v>
+        <v>1405.052316607875</v>
       </c>
       <c r="S8">
-        <v>0.02053234056140174</v>
+        <v>0.01983556542253681</v>
       </c>
       <c r="T8">
-        <v>0.02053234056140174</v>
+        <v>0.01983556542253681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H9">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="I9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="J9">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.8114367846446</v>
+        <v>49.07777633333333</v>
       </c>
       <c r="N9">
-        <v>48.8114367846446</v>
+        <v>147.233329</v>
       </c>
       <c r="O9">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="P9">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="Q9">
-        <v>2161.725197463984</v>
+        <v>2173.657642110655</v>
       </c>
       <c r="R9">
-        <v>2161.725197463984</v>
+        <v>19562.91877899589</v>
       </c>
       <c r="S9">
-        <v>0.284914310109857</v>
+        <v>0.2761758766629915</v>
       </c>
       <c r="T9">
-        <v>0.284914310109857</v>
+        <v>0.2761758766629915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H10">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="I10">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="J10">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.12942177953271</v>
+        <v>69.40412133333334</v>
       </c>
       <c r="N10">
-        <v>69.12942177953271</v>
+        <v>208.212364</v>
       </c>
       <c r="O10">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="P10">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="Q10">
-        <v>3061.553250445248</v>
+        <v>3073.912674965907</v>
       </c>
       <c r="R10">
-        <v>3061.553250445248</v>
+        <v>27665.21407469316</v>
       </c>
       <c r="S10">
-        <v>0.4035112017191217</v>
+        <v>0.3905585274090617</v>
       </c>
       <c r="T10">
-        <v>0.4035112017191217</v>
+        <v>0.3905585274090617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.2872683097096</v>
+        <v>44.29005966666667</v>
       </c>
       <c r="H11">
-        <v>44.2872683097096</v>
+        <v>132.870179</v>
       </c>
       <c r="I11">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="J11">
-        <v>0.7295795725846562</v>
+        <v>0.7070964373190639</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.84901862104106</v>
+        <v>1.909715333333333</v>
       </c>
       <c r="N11">
-        <v>1.84901862104106</v>
+        <v>5.729146</v>
       </c>
       <c r="O11">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="P11">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="Q11">
-        <v>81.88798377969468</v>
+        <v>84.58140605968157</v>
       </c>
       <c r="R11">
-        <v>81.88798377969468</v>
+        <v>761.2326545371341</v>
       </c>
       <c r="S11">
-        <v>0.0107927956949614</v>
+        <v>0.01074656078095111</v>
       </c>
       <c r="T11">
-        <v>0.0107927956949614</v>
+        <v>0.01074656078095111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="H12">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="I12">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="J12">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.68388848799608</v>
+        <v>1.737936333333333</v>
       </c>
       <c r="N12">
-        <v>1.68388848799608</v>
+        <v>5.213808999999999</v>
       </c>
       <c r="O12">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="P12">
-        <v>0.01347203906010402</v>
+        <v>0.01383107950678261</v>
       </c>
       <c r="Q12">
-        <v>24.12834033400076</v>
+        <v>27.97664620925077</v>
       </c>
       <c r="R12">
-        <v>24.12834033400076</v>
+        <v>251.789815883257</v>
       </c>
       <c r="S12">
-        <v>0.00318010330287238</v>
+        <v>0.003554596015142323</v>
       </c>
       <c r="T12">
-        <v>0.00318010330287238</v>
+        <v>0.003554596015142324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="H13">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="I13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="J13">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.51759461631542</v>
+        <v>3.524875</v>
       </c>
       <c r="N13">
-        <v>3.51759461631542</v>
+        <v>10.574625</v>
       </c>
       <c r="O13">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="P13">
-        <v>0.02814270208890653</v>
+        <v>0.02805213599681367</v>
       </c>
       <c r="Q13">
-        <v>50.40340893387287</v>
+        <v>56.74211357195833</v>
       </c>
       <c r="R13">
-        <v>50.40340893387287</v>
+        <v>510.6790221476249</v>
       </c>
       <c r="S13">
-        <v>0.006643144327700167</v>
+        <v>0.007209416356952161</v>
       </c>
       <c r="T13">
-        <v>0.006643144327700167</v>
+        <v>0.007209416356952163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="H14">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="I14">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="J14">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.8114367846446</v>
+        <v>49.07777633333333</v>
       </c>
       <c r="N14">
-        <v>48.8114367846446</v>
+        <v>147.233329</v>
       </c>
       <c r="O14">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="P14">
-        <v>0.3905184860103758</v>
+        <v>0.3905773839140027</v>
       </c>
       <c r="Q14">
-        <v>699.4162424217551</v>
+        <v>790.0356065293573</v>
       </c>
       <c r="R14">
-        <v>699.4162424217551</v>
+        <v>7110.320458764217</v>
       </c>
       <c r="S14">
-        <v>0.09218271426127597</v>
+        <v>0.1003786300110991</v>
       </c>
       <c r="T14">
-        <v>0.09218271426127597</v>
+        <v>0.1003786300110991</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="H15">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="I15">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="J15">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>69.12942177953271</v>
+        <v>69.40412133333334</v>
       </c>
       <c r="N15">
-        <v>69.12942177953271</v>
+        <v>208.212364</v>
       </c>
       <c r="O15">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="P15">
-        <v>0.55307360140254</v>
+        <v>0.5523412462518597</v>
       </c>
       <c r="Q15">
-        <v>990.5514692212403</v>
+        <v>1117.241472409086</v>
       </c>
       <c r="R15">
-        <v>990.5514692212403</v>
+        <v>10055.17325168177</v>
       </c>
       <c r="S15">
-        <v>0.1305541929254294</v>
+        <v>0.1419520430030642</v>
       </c>
       <c r="T15">
-        <v>0.1305541929254294</v>
+        <v>0.1419520430030642</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.3289419139119</v>
+        <v>16.09762433333333</v>
       </c>
       <c r="H16">
-        <v>14.3289419139119</v>
+        <v>48.292873</v>
       </c>
       <c r="I16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793478</v>
       </c>
       <c r="J16">
-        <v>0.2360521142111228</v>
+        <v>0.2570006204793479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.84901862104106</v>
+        <v>1.909715333333333</v>
       </c>
       <c r="N16">
-        <v>1.84901862104106</v>
+        <v>5.729146</v>
       </c>
       <c r="O16">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="P16">
-        <v>0.01479317143807376</v>
+        <v>0.01519815433054137</v>
       </c>
       <c r="Q16">
-        <v>26.49448041863883</v>
+        <v>30.74188001960644</v>
       </c>
       <c r="R16">
-        <v>26.49448041863883</v>
+        <v>276.676920176458</v>
       </c>
       <c r="S16">
-        <v>0.003491959393844907</v>
+        <v>0.00390593509309002</v>
       </c>
       <c r="T16">
-        <v>0.003491959393844907</v>
+        <v>0.00390593509309002</v>
       </c>
     </row>
   </sheetData>
